--- a/game/MMO/ExcelMMO/colPoints.xlsx
+++ b/game/MMO/ExcelMMO/colPoints.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E72419-F556-40B7-9268-6A43943F982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0206B4CE-BB77-476E-A9C5-1481F983360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22410" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -161,18 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任意首充1次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与现金BOSS1次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次在线满10分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在线时间达到一定时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +222,18 @@
   </si>
   <si>
     <t>参与击杀指定怪物，填写怪物id，支持多个配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次在线满10分钟 &lt;color=#26C55E&gt;+1点&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与现金BOSS1次 &lt;color=#26C55E&gt;+1点&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意首充1次 &lt;color=#26C55E&gt;+3点&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +382,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,7 +391,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,9 +407,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +420,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,10 +814,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.15">
@@ -825,10 +825,10 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.15">
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -895,211 +895,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
-        <v>3</v>
-      </c>
-      <c r="F4" s="16">
-        <v>3</v>
-      </c>
-      <c r="G4" s="16">
-        <v>3</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="21">
         <v>101</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="21">
         <v>9000</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="22">
         <v>47050001400</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="22">
+        <v>4995</v>
+      </c>
+      <c r="G5" s="22">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="21">
+        <v>102</v>
+      </c>
+      <c r="B6" s="21">
+        <v>800</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="18">
-        <v>50</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>102</v>
-      </c>
-      <c r="B6" s="7">
-        <v>800</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="E6" s="22">
         <v>47050001400</v>
       </c>
-      <c r="F6" s="18">
-        <v>80</v>
-      </c>
-      <c r="G6" s="18">
-        <v>100</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>43</v>
+      <c r="F6" s="22">
+        <v>9995</v>
+      </c>
+      <c r="G6" s="22">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="21">
         <v>103</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="21">
         <v>180</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="22">
         <v>47050001400</v>
       </c>
-      <c r="F7" s="18">
-        <v>130</v>
-      </c>
-      <c r="G7" s="18">
-        <v>150</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>43</v>
+      <c r="F7" s="22">
+        <v>14994.999999999998</v>
+      </c>
+      <c r="G7" s="22">
+        <v>15000</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="21">
         <v>104</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="21">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="22">
         <v>47050001400</v>
       </c>
-      <c r="F8" s="18">
-        <v>180</v>
-      </c>
-      <c r="G8" s="18">
-        <v>200</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>43</v>
+      <c r="F8" s="22">
+        <v>19995</v>
+      </c>
+      <c r="G8" s="22">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1121,12 +1121,12 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="21.125" customWidth="1"/>
@@ -1136,94 +1136,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>50</v>
+      <c r="G1" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
-        <v>3</v>
-      </c>
-      <c r="D4" s="15">
-        <v>3</v>
-      </c>
-      <c r="E4" s="15">
-        <v>3</v>
-      </c>
-      <c r="F4" s="16">
-        <v>3</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3</v>
+      </c>
+      <c r="G4" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1231,13 +1231,13 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="19">
-        <v>5</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="B5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
         <v>1</v>
       </c>
       <c r="E5">
@@ -1251,13 +1251,13 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="19">
-        <v>5</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="B6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
         <v>10</v>
       </c>
       <c r="E6">
@@ -1266,7 +1266,7 @@
       <c r="F6">
         <v>12023000200</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="16">
         <v>56001010700</v>
       </c>
     </row>
@@ -1274,13 +1274,13 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="19">
-        <v>10</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="B7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16">
         <v>1</v>
       </c>
       <c r="E7">
@@ -1291,30 +1291,30 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/game/MMO/ExcelMMO/colPoints.xlsx
+++ b/game/MMO/ExcelMMO/colPoints.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0206B4CE-BB77-476E-A9C5-1481F983360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF5B61B-31A7-4A55-841A-B213B3395244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22410" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32310" yWindow="2715" windowWidth="22410" windowHeight="13485" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>修改日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,19 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现金点需满100方可提现</t>
-  </si>
-  <si>
-    <t>现金点需满150方可提现</t>
-  </si>
-  <si>
-    <t>现金点需满200方可提现</t>
-  </si>
-  <si>
-    <t>现金点需满50方可提现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在线时间达到一定时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +222,9 @@
   <si>
     <t>任意首充1次 &lt;color=#26C55E&gt;+3点&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdlhl_wenzi</t>
   </si>
 </sst>
 </file>
@@ -429,7 +419,15 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -766,7 +764,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.15">
@@ -825,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.15">
@@ -836,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -876,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -911,10 +909,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>19</v>
@@ -937,10 +935,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>18</v>
@@ -1009,10 +1007,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E5" s="22">
-        <v>47050001400</v>
+        <v>47051020200</v>
       </c>
       <c r="F5" s="22">
         <v>4995</v>
@@ -1021,7 +1019,7 @@
         <v>5000</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1035,10 +1033,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E6" s="22">
-        <v>47050001400</v>
+        <v>47051020201</v>
       </c>
       <c r="F6" s="22">
         <v>9995</v>
@@ -1047,7 +1045,7 @@
         <v>10000</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1061,10 +1059,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E7" s="22">
-        <v>47050001400</v>
+        <v>47051020202</v>
       </c>
       <c r="F7" s="22">
         <v>14994.999999999998</v>
@@ -1073,7 +1071,7 @@
         <v>15000</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1087,10 +1085,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E8" s="22">
-        <v>47050001400</v>
+        <v>47051020203</v>
       </c>
       <c r="F8" s="22">
         <v>19995</v>
@@ -1099,7 +1097,7 @@
         <v>20000</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1120,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560260DB-F453-4D66-A881-D6BBFA1E08E4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1143,10 +1141,10 @@
         <v>21</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>24</v>
@@ -1155,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1166,10 +1164,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>22</v>
@@ -1178,7 +1176,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1232,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -1252,13 +1250,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
       </c>
       <c r="D6" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1275,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" s="16">
         <v>3</v>
